--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,34 +74,46 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.984+/-0.001</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.995+/-0.014</t>
-  </si>
-  <si>
-    <t>0.67+/-0.03</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.963+/-0.012</t>
-  </si>
-  <si>
-    <t>0.59+/-0.032</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.982+/-0.002</t>
+  </si>
+  <si>
+    <t>0.734+/-0.0</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.976+/-0.024</t>
+  </si>
+  <si>
+    <t>0.666+/-0.022</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.978+/-0.02</t>
+  </si>
+  <si>
+    <t>0.604+/-0.03</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
   </si>
   <si>
     <t>0.674+/-0.002</t>
@@ -110,28 +122,28 @@
     <t>0.669+/-0.0</t>
   </si>
   <si>
-    <t>0.684</t>
+    <t>0.685</t>
   </si>
   <si>
     <t>0.57+/-0.003</t>
   </si>
   <si>
-    <t>0.564+/-0.019</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.586+/-0.009</t>
-  </si>
-  <si>
-    <t>0.58+/-0.037</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.088+/-0.006</t>
+    <t>0.565+/-0.02</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.587+/-0.01</t>
+  </si>
+  <si>
+    <t>0.582+/-0.036</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.069+/-0.005</t>
   </si>
   <si>
     <t>0.629+/-0.003</t>
@@ -143,7 +155,7 @@
     <t>0.632</t>
   </si>
   <si>
-    <t>0.509+/-0.002</t>
+    <t>0.51+/-0.002</t>
   </si>
   <si>
     <t>0.508+/-0.017</t>
@@ -152,163 +164,166 @@
     <t>0.512</t>
   </si>
   <si>
-    <t>0.736+/-0.008</t>
-  </si>
-  <si>
-    <t>0.735+/-0.024</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.008+/-0.0</t>
-  </si>
-  <si>
-    <t>0.636+/-0.001</t>
-  </si>
-  <si>
-    <t>0.635+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.522+/-0.002</t>
-  </si>
-  <si>
-    <t>0.52+/-0.019</t>
-  </si>
-  <si>
-    <t>0.518</t>
+    <t>0.737+/-0.008</t>
+  </si>
+  <si>
+    <t>0.735+/-0.025</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.637+/-0.001</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.522+/-0.001</t>
+  </si>
+  <si>
+    <t>0.521+/-0.02</t>
+  </si>
+  <si>
+    <t>0.515</t>
   </si>
   <si>
     <t>0.545+/-0.004</t>
   </si>
   <si>
-    <t>0.543+/-0.022</t>
-  </si>
-  <si>
-    <t>0.523</t>
+    <t>0.545+/-0.022</t>
+  </si>
+  <si>
+    <t>0.525</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.8+/-0.007</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.782+/-0.038</t>
-  </si>
-  <si>
-    <t>0.72+/-0.03</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.667+/-0.054</t>
-  </si>
-  <si>
-    <t>0.613+/-0.075</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>6.006+/-1.561</t>
+    <t>0.799+/-0.007</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.765+/-0.031</t>
+  </si>
+  <si>
+    <t>0.709+/-0.042</t>
+  </si>
+  <si>
+    <t>0.687+/-0.044</t>
+  </si>
+  <si>
+    <t>0.631+/-0.042</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>3.582+/-1.111</t>
   </si>
   <si>
     <t>0.819+/-0.008</t>
   </si>
   <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.807+/-0.019</t>
-  </si>
-  <si>
-    <t>0.688+/-0.026</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.693+/-0.04</t>
-  </si>
-  <si>
-    <t>0.589+/-0.041</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.125+/-0.012</t>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.805+/-0.018</t>
+  </si>
+  <si>
+    <t>0.689+/-0.026</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.695+/-0.038</t>
+  </si>
+  <si>
+    <t>0.594+/-0.043</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.097+/-0.008</t>
   </si>
   <si>
     <t>0.806+/-0.006</t>
   </si>
   <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.808+/-0.017</t>
-  </si>
-  <si>
-    <t>0.696+/-0.024</t>
-  </si>
-  <si>
-    <t>0.651</t>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.807+/-0.017</t>
+  </si>
+  <si>
+    <t>0.696+/-0.027</t>
+  </si>
+  <si>
+    <t>0.66</t>
   </si>
   <si>
     <t>0.645+/-0.02</t>
   </si>
   <si>
-    <t>0.554+/-0.039</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.172+/-0.008</t>
-  </si>
-  <si>
-    <t>0.75+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.692+/-0.004</t>
-  </si>
-  <si>
-    <t>0.655+/-0.014</t>
-  </si>
-  <si>
-    <t>0.617+/-0.005</t>
-  </si>
-  <si>
-    <t>0.581+/-0.027</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>41.019+/-5.65</t>
+    <t>0.555+/-0.039</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.13+/-0.006</t>
+  </si>
+  <si>
+    <t>0.748+/-0.002</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.685+/-0.004</t>
+  </si>
+  <si>
+    <t>0.653+/-0.017</t>
+  </si>
+  <si>
+    <t>0.627+/-0.006</t>
+  </si>
+  <si>
+    <t>0.593+/-0.026</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>33.397+/-2.742</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
   </si>
   <si>
     <t>0.995+/-0.0</t>
@@ -323,223 +338,205 @@
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.672+/-0.032</t>
-  </si>
-  <si>
-    <t>0.69</t>
+    <t>0.665+/-0.035</t>
+  </si>
+  <si>
+    <t>0.687</t>
   </si>
   <si>
     <t>0.975+/-0.001</t>
   </si>
   <si>
-    <t>0.305+/-0.025</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.053+/-0.01</t>
+    <t>0.308+/-0.023</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.036+/-0.004</t>
   </si>
   <si>
     <t>0.803+/-0.0</t>
   </si>
   <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.579+/-0.023</t>
-  </si>
-  <si>
-    <t>0.553+/-0.15</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.029+/-0.002</t>
-  </si>
-  <si>
-    <t>0.029+/-0.016</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>0.067+/-0.005</t>
-  </si>
-  <si>
-    <t>0.784+/-0.006</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>0.395+/-0.036</t>
-  </si>
-  <si>
-    <t>0.385+/-0.042</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.163+/-0.019</t>
-  </si>
-  <si>
-    <t>0.157+/-0.024</t>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.577+/-0.019</t>
+  </si>
+  <si>
+    <t>0.562+/-0.127</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.029+/-0.001</t>
+  </si>
+  <si>
+    <t>0.028+/-0.013</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.043+/-0.004</t>
+  </si>
+  <si>
+    <t>0.789+/-0.006</t>
+  </si>
+  <si>
+    <t>0.788+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.415+/-0.037</t>
+  </si>
+  <si>
+    <t>0.413+/-0.05</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.16+/-0.021</t>
+  </si>
+  <si>
+    <t>0.155+/-0.02</t>
   </si>
   <si>
     <t>0.195</t>
   </si>
   <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>0.268+/-0.09</t>
-  </si>
-  <si>
-    <t>0.202+/-0.292</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.015+/-0.017</t>
-  </si>
-  <si>
-    <t>0.01+/-0.013</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.865+/-0.003</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.759+/-0.022</t>
-  </si>
-  <si>
-    <t>0.677+/-0.028</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.473+/-0.024</t>
-  </si>
-  <si>
-    <t>0.405+/-0.036</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>6.16+/-1.812</t>
-  </si>
-  <si>
-    <t>0.899+/-0.004</t>
-  </si>
-  <si>
-    <t>0.82+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.833+/-0.027</t>
-  </si>
-  <si>
-    <t>0.562+/-0.033</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.619+/-0.026</t>
-  </si>
-  <si>
-    <t>0.431+/-0.029</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.094+/-0.007</t>
+    <t>0.801+/-0.001</t>
+  </si>
+  <si>
+    <t>0.113+/-0.225</t>
+  </si>
+  <si>
+    <t>0.001+/-0.002</t>
+  </si>
+  <si>
+    <t>0.865+/-0.005</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.766+/-0.024</t>
+  </si>
+  <si>
+    <t>0.683+/-0.038</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.461+/-0.037</t>
+  </si>
+  <si>
+    <t>0.41+/-0.028</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>3.911+/-0.969</t>
+  </si>
+  <si>
+    <t>0.898+/-0.004</t>
+  </si>
+  <si>
+    <t>0.823+/-0.0</t>
+  </si>
+  <si>
+    <t>0.836</t>
+  </si>
+  <si>
+    <t>0.828+/-0.028</t>
+  </si>
+  <si>
+    <t>0.573+/-0.026</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.617+/-0.025</t>
+  </si>
+  <si>
+    <t>0.438+/-0.03</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.088+/-0.009</t>
   </si>
   <si>
     <t>0.889+/-0.004</t>
   </si>
   <si>
-    <t>0.827+/-0.0</t>
-  </si>
-  <si>
-    <t>0.817+/-0.016</t>
-  </si>
-  <si>
-    <t>0.593+/-0.036</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.568+/-0.024</t>
-  </si>
-  <si>
-    <t>0.408+/-0.043</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.12+/-0.004</t>
-  </si>
-  <si>
-    <t>0.844+/-0.001</t>
+    <t>0.826+/-0.0</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>0.815+/-0.019</t>
+  </si>
+  <si>
+    <t>0.585+/-0.028</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.571+/-0.023</t>
+  </si>
+  <si>
+    <t>0.416+/-0.036</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.136+/-0.011</t>
+  </si>
+  <si>
+    <t>0.845+/-0.001</t>
   </si>
   <si>
     <t>0.835+/-0.0</t>
   </si>
   <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.75+/-0.005</t>
-  </si>
-  <si>
-    <t>0.704+/-0.049</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.325+/-0.004</t>
-  </si>
-  <si>
-    <t>0.289+/-0.027</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>31.87+/-4.014</t>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.744+/-0.005</t>
+  </si>
+  <si>
+    <t>0.702+/-0.044</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.333+/-0.004</t>
+  </si>
+  <si>
+    <t>0.299+/-0.025</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>22.001+/-1.702</t>
   </si>
 </sst>
 </file>
@@ -940,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>0.6189445196211096</v>
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -969,31 +966,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>0.6189445196211096</v>
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1001,31 +998,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1033,31 +1030,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1065,31 +1062,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1097,31 +1094,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1129,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0.6189445196211096</v>
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1161,31 +1158,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0.6189445196211096</v>
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1193,31 +1190,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1225,31 +1222,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1299,31 +1296,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2">
-        <v>0.8014433919711321</v>
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1331,31 +1328,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3">
-        <v>0.8014433919711321</v>
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1363,31 +1360,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1395,31 +1392,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1427,31 +1424,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1459,31 +1456,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1491,31 +1488,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8">
-        <v>0.8014433919711321</v>
+        <v>160</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1523,31 +1520,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9">
-        <v>0.8014433919711321</v>
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1555,31 +1552,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1587,31 +1584,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="182">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -86,70 +86,70 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.982+/-0.002</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.976+/-0.024</t>
-  </si>
-  <si>
-    <t>0.666+/-0.022</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.978+/-0.02</t>
-  </si>
-  <si>
-    <t>0.604+/-0.03</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
+    <t>0.984+/-0.0</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68+/-0.023</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.959+/-0.001</t>
+  </si>
+  <si>
+    <t>0.581+/-0.03</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.054+/-0.009</t>
   </si>
   <si>
     <t>0.674+/-0.002</t>
   </si>
   <si>
-    <t>0.669+/-0.0</t>
+    <t>0.671+/-0.0</t>
   </si>
   <si>
     <t>0.685</t>
   </si>
   <si>
-    <t>0.57+/-0.003</t>
-  </si>
-  <si>
-    <t>0.565+/-0.02</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.587+/-0.01</t>
-  </si>
-  <si>
-    <t>0.582+/-0.036</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.069+/-0.005</t>
-  </si>
-  <si>
-    <t>0.629+/-0.003</t>
-  </si>
-  <si>
-    <t>0.628+/-0.0</t>
+    <t>0.572+/-0.003</t>
+  </si>
+  <si>
+    <t>0.568+/-0.022</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.572+/-0.011</t>
+  </si>
+  <si>
+    <t>0.568+/-0.039</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.072+/-0.005</t>
+  </si>
+  <si>
+    <t>0.63+/-0.003</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
   </si>
   <si>
     <t>0.632</t>
@@ -158,7 +158,7 @@
     <t>0.51+/-0.002</t>
   </si>
   <si>
-    <t>0.508+/-0.017</t>
+    <t>0.509+/-0.017</t>
   </si>
   <si>
     <t>0.512</t>
@@ -167,193 +167,199 @@
     <t>0.737+/-0.008</t>
   </si>
   <si>
-    <t>0.735+/-0.025</t>
+    <t>0.736+/-0.025</t>
   </si>
   <si>
     <t>0.728</t>
   </si>
   <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.637+/-0.001</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.522+/-0.001</t>
-  </si>
-  <si>
-    <t>0.521+/-0.02</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.545+/-0.004</t>
-  </si>
-  <si>
-    <t>0.545+/-0.022</t>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.636+/-0.002</t>
+  </si>
+  <si>
+    <t>0.635+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.522+/-0.002</t>
+  </si>
+  <si>
+    <t>0.52+/-0.017</t>
   </si>
   <si>
     <t>0.525</t>
   </si>
   <si>
+    <t>0.543+/-0.005</t>
+  </si>
+  <si>
+    <t>0.541+/-0.018</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.799+/-0.007</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.765+/-0.031</t>
-  </si>
-  <si>
-    <t>0.709+/-0.042</t>
-  </si>
-  <si>
-    <t>0.687+/-0.044</t>
-  </si>
-  <si>
-    <t>0.631+/-0.042</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>3.582+/-1.111</t>
+    <t>0.798+/-0.004</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.761+/-0.028</t>
+  </si>
+  <si>
+    <t>0.699+/-0.028</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.689+/-0.035</t>
+  </si>
+  <si>
+    <t>0.645+/-0.051</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>4.519+/-1.077</t>
   </si>
   <si>
     <t>0.819+/-0.008</t>
   </si>
   <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.805+/-0.018</t>
-  </si>
-  <si>
-    <t>0.689+/-0.026</t>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.809+/-0.02</t>
+  </si>
+  <si>
+    <t>0.69+/-0.03</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.688+/-0.039</t>
+  </si>
+  <si>
+    <t>0.585+/-0.04</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.093+/-0.008</t>
+  </si>
+  <si>
+    <t>0.806+/-0.007</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.803+/-0.012</t>
+  </si>
+  <si>
+    <t>0.693+/-0.025</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.651+/-0.025</t>
+  </si>
+  <si>
+    <t>0.564+/-0.031</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.13+/-0.011</t>
+  </si>
+  <si>
+    <t>0.748+/-0.002</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.689+/-0.003</t>
+  </si>
+  <si>
+    <t>0.654+/-0.017</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.616+/-0.007</t>
+  </si>
+  <si>
+    <t>0.579+/-0.025</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>41.632+/-2.856</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.682+/-0.044</t>
   </si>
   <si>
     <t>0.69</t>
   </si>
   <si>
-    <t>0.695+/-0.038</t>
-  </si>
-  <si>
-    <t>0.594+/-0.043</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.097+/-0.008</t>
-  </si>
-  <si>
-    <t>0.806+/-0.006</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.807+/-0.017</t>
-  </si>
-  <si>
-    <t>0.696+/-0.027</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.645+/-0.02</t>
-  </si>
-  <si>
-    <t>0.555+/-0.039</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.13+/-0.006</t>
-  </si>
-  <si>
-    <t>0.748+/-0.002</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.685+/-0.004</t>
-  </si>
-  <si>
-    <t>0.653+/-0.017</t>
-  </si>
-  <si>
-    <t>0.627+/-0.006</t>
-  </si>
-  <si>
-    <t>0.593+/-0.026</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>33.397+/-2.742</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832+/-0.0</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665+/-0.035</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
     <t>0.975+/-0.001</t>
   </si>
   <si>
-    <t>0.308+/-0.023</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.036+/-0.004</t>
+    <t>0.313+/-0.027</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.067+/-0.01</t>
   </si>
   <si>
     <t>0.803+/-0.0</t>
@@ -362,151 +368,169 @@
     <t>0.801</t>
   </si>
   <si>
-    <t>0.577+/-0.019</t>
-  </si>
-  <si>
-    <t>0.562+/-0.127</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.029+/-0.001</t>
-  </si>
-  <si>
-    <t>0.028+/-0.013</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.043+/-0.004</t>
-  </si>
-  <si>
-    <t>0.789+/-0.006</t>
-  </si>
-  <si>
-    <t>0.788+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>0.415+/-0.037</t>
-  </si>
-  <si>
-    <t>0.413+/-0.05</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.16+/-0.021</t>
-  </si>
-  <si>
-    <t>0.155+/-0.02</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.801+/-0.001</t>
-  </si>
-  <si>
-    <t>0.113+/-0.225</t>
-  </si>
-  <si>
-    <t>0.001+/-0.002</t>
-  </si>
-  <si>
-    <t>0.865+/-0.005</t>
-  </si>
-  <si>
-    <t>0.845+/-0.0</t>
-  </si>
-  <si>
-    <t>0.858</t>
-  </si>
-  <si>
-    <t>0.766+/-0.024</t>
-  </si>
-  <si>
-    <t>0.683+/-0.038</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.461+/-0.037</t>
-  </si>
-  <si>
-    <t>0.41+/-0.028</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>3.911+/-0.969</t>
-  </si>
-  <si>
-    <t>0.898+/-0.004</t>
+    <t>0.582+/-0.023</t>
+  </si>
+  <si>
+    <t>0.553+/-0.134</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.03+/-0.002</t>
+  </si>
+  <si>
+    <t>0.03+/-0.013</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.062+/-0.008</t>
+  </si>
+  <si>
+    <t>0.787+/-0.005</t>
+  </si>
+  <si>
+    <t>0.785+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.412+/-0.031</t>
+  </si>
+  <si>
+    <t>0.405+/-0.044</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.174+/-0.02</t>
+  </si>
+  <si>
+    <t>0.168+/-0.02</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.796+/-0.003</t>
+  </si>
+  <si>
+    <t>0.796+/-0.0</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.294+/-0.045</t>
+  </si>
+  <si>
+    <t>0.28+/-0.12</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.024+/-0.018</t>
+  </si>
+  <si>
+    <t>0.025+/-0.016</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.01+/-0.004</t>
+  </si>
+  <si>
+    <t>0.865+/-0.004</t>
+  </si>
+  <si>
+    <t>0.841+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.764+/-0.04</t>
+  </si>
+  <si>
+    <t>0.671+/-0.053</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.469+/-0.048</t>
+  </si>
+  <si>
+    <t>0.407+/-0.046</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>12.658+/-2.924</t>
+  </si>
+  <si>
+    <t>0.899+/-0.005</t>
   </si>
   <si>
     <t>0.823+/-0.0</t>
   </si>
   <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.828+/-0.028</t>
-  </si>
-  <si>
-    <t>0.573+/-0.026</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.617+/-0.025</t>
-  </si>
-  <si>
-    <t>0.438+/-0.03</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.088+/-0.009</t>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.83+/-0.031</t>
+  </si>
+  <si>
+    <t>0.572+/-0.034</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.62+/-0.025</t>
+  </si>
+  <si>
+    <t>0.435+/-0.034</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.127+/-0.003</t>
   </si>
   <si>
     <t>0.889+/-0.004</t>
   </si>
   <si>
-    <t>0.826+/-0.0</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.815+/-0.019</t>
-  </si>
-  <si>
-    <t>0.585+/-0.028</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.571+/-0.023</t>
-  </si>
-  <si>
-    <t>0.416+/-0.036</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.136+/-0.011</t>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.818+/-0.021</t>
+  </si>
+  <si>
+    <t>0.595+/-0.032</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.567+/-0.027</t>
+  </si>
+  <si>
+    <t>0.426+/-0.027</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.17+/-0.004</t>
   </si>
   <si>
     <t>0.845+/-0.001</t>
@@ -515,28 +539,28 @@
     <t>0.835+/-0.0</t>
   </si>
   <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.744+/-0.005</t>
-  </si>
-  <si>
-    <t>0.702+/-0.044</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.333+/-0.004</t>
-  </si>
-  <si>
-    <t>0.299+/-0.025</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>22.001+/-1.702</t>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.757+/-0.004</t>
+  </si>
+  <si>
+    <t>0.711+/-0.045</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.326+/-0.005</t>
+  </si>
+  <si>
+    <t>0.29+/-0.024</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>34.059+/-1.361</t>
   </si>
 </sst>
 </file>
@@ -952,13 +976,13 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -984,13 +1008,13 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1016,13 +1040,13 @@
         <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1048,13 +1072,13 @@
         <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1080,13 +1104,13 @@
         <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1109,16 +1133,16 @@
         <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1141,16 +1165,16 @@
         <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1173,16 +1197,16 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1205,16 +1229,16 @@
         <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1237,16 +1261,16 @@
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1296,31 +1320,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1328,31 +1352,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1360,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1395,28 +1419,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1427,28 +1451,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1459,28 +1483,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1491,28 +1515,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1523,28 +1547,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1555,28 +1579,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1584,31 +1608,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
